--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H2">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I2">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J2">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>220.317123428736</v>
+        <v>13.20309597787889</v>
       </c>
       <c r="R2">
-        <v>1982.854110858624</v>
+        <v>118.82786380091</v>
       </c>
       <c r="S2">
-        <v>0.04735472751584342</v>
+        <v>0.005903076809877687</v>
       </c>
       <c r="T2">
-        <v>0.04735472751584342</v>
+        <v>0.005903076809877687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H3">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I3">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J3">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>208.1787502058613</v>
+        <v>22.99546461424667</v>
       </c>
       <c r="R3">
-        <v>1873.608751852752</v>
+        <v>206.95918152822</v>
       </c>
       <c r="S3">
-        <v>0.04474571852231065</v>
+        <v>0.01028122450402198</v>
       </c>
       <c r="T3">
-        <v>0.04474571852231066</v>
+        <v>0.01028122450402198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H4">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I4">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J4">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>244.1638842299538</v>
+        <v>28.40806014410222</v>
       </c>
       <c r="R4">
-        <v>2197.474958069584</v>
+        <v>255.67254129692</v>
       </c>
       <c r="S4">
-        <v>0.05248032484710321</v>
+        <v>0.01270118473206774</v>
       </c>
       <c r="T4">
-        <v>0.05248032484710322</v>
+        <v>0.01270118473206774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.499009</v>
       </c>
       <c r="I5">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J5">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>656.290953076176</v>
+        <v>356.0558728671524</v>
       </c>
       <c r="R5">
-        <v>5906.618577685584</v>
+        <v>3204.502855804372</v>
       </c>
       <c r="S5">
-        <v>0.1410624774432849</v>
+        <v>0.1591918417971319</v>
       </c>
       <c r="T5">
-        <v>0.1410624774432849</v>
+        <v>0.1591918417971319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.499009</v>
       </c>
       <c r="I6">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J6">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>620.132599121398</v>
@@ -818,10 +818,10 @@
         <v>5581.193392092582</v>
       </c>
       <c r="S6">
-        <v>0.1332906394113501</v>
+        <v>0.2772599980380359</v>
       </c>
       <c r="T6">
-        <v>0.1332906394113501</v>
+        <v>0.2772599980380358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.499009</v>
       </c>
       <c r="I7">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J7">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>727.3267996342995</v>
+        <v>766.0973356565613</v>
       </c>
       <c r="R7">
-        <v>6545.941196708694</v>
+        <v>6894.876020909052</v>
       </c>
       <c r="S7">
-        <v>0.1563308465344658</v>
+        <v>0.3425205288062939</v>
       </c>
       <c r="T7">
-        <v>0.1563308465344658</v>
+        <v>0.3425205288062938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H8">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I8">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J8">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>647.2261241273759</v>
+        <v>87.82511680503956</v>
       </c>
       <c r="R8">
-        <v>5825.035117146384</v>
+        <v>790.4260512453561</v>
       </c>
       <c r="S8">
-        <v>0.139114092777728</v>
+        <v>0.03926642745044382</v>
       </c>
       <c r="T8">
-        <v>0.139114092777728</v>
+        <v>0.03926642745044382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H9">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I9">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J9">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>611.5671969773313</v>
+        <v>152.9625603809947</v>
       </c>
       <c r="R9">
-        <v>5504.104772795982</v>
+        <v>1376.663043428952</v>
       </c>
       <c r="S9">
-        <v>0.1314496010105056</v>
+        <v>0.06838924328637849</v>
       </c>
       <c r="T9">
-        <v>0.1314496010105056</v>
+        <v>0.06838924328637849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H10">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I10">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J10">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>717.2808086029438</v>
+        <v>188.9663761090968</v>
       </c>
       <c r="R10">
-        <v>6455.527277426494</v>
+        <v>1700.697384981872</v>
       </c>
       <c r="S10">
-        <v>0.1541715719374083</v>
+        <v>0.08448647457574866</v>
       </c>
       <c r="T10">
-        <v>0.1541715719374083</v>
+        <v>0.08448647457574868</v>
       </c>
     </row>
   </sheetData>
